--- a/RQ3_Results/Developer's_Positive_Issues.xlsx
+++ b/RQ3_Results/Developer's_Positive_Issues.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20412\Desktop\SaFE-APIOpt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20412\Desktop\SaFE-APIOpt\RQ3_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12605BF4-C7DE-484F-972D-10883B27412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C12481-2AA4-46A1-B7F5-5AE8E96C1671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,9 +812,7 @@
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -865,7 +863,6 @@
     <hyperlink ref="A45" r:id="rId44" xr:uid="{FCC9B2AC-8DAA-40F0-A1DE-70BF4B595738}"/>
     <hyperlink ref="A46" r:id="rId45" xr:uid="{2EC111F4-3F2A-45C9-B917-2D2F0222BF98}"/>
     <hyperlink ref="A47" r:id="rId46" xr:uid="{CCEF4EE0-F1A0-48E0-BD51-09A3666BF932}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{A1C365ED-40F0-4A7C-AA28-D0238C19E682}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RQ3_Results/Developer's_Positive_Issues.xlsx
+++ b/RQ3_Results/Developer's_Positive_Issues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20412\Desktop\SaFE-APIOpt\RQ3_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C12481-2AA4-46A1-B7F5-5AE8E96C1671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B06A4-9135-4991-971F-423576A25B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/EBjerrum/Deep-Chemometrics/issues/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/fgnt/nara_wpe/issues/80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,6 +208,10 @@
   </si>
   <si>
     <t>https://github.com/elsejj/mcp-cn-a-stock/issues/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/sambit-giri/tools21cm/issues/68</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +568,7 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,157 +658,157 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
